--- a/data/data14_prep.xlsx
+++ b/data/data14_prep.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="47">
   <si>
-    <t>Material type</t>
+    <t>material_type</t>
   </si>
   <si>
     <t>Elements</t>
@@ -31,19 +31,19 @@
     <t>Core size (nm)</t>
   </si>
   <si>
-    <t>Hydro size (nm)</t>
+    <t>size_nm</t>
   </si>
   <si>
-    <t>Surface charge (mV)</t>
+    <t>surface_charge_mv</t>
   </si>
   <si>
     <t>Surface area (m2/g)</t>
   </si>
   <si>
-    <t>Cell type</t>
+    <t>cell_type</t>
   </si>
   <si>
-    <t>Exposure dose (ug/mL)</t>
+    <t>concentration_ug/ml</t>
   </si>
   <si>
     <t>Number of atoms</t>
@@ -55,7 +55,7 @@
     <t>Topological polar surface area (Å²)</t>
   </si>
   <si>
-    <t>Viability (%)</t>
+    <t>viability</t>
   </si>
   <si>
     <t>CuO</t>

--- a/data/data14_prep.xlsx
+++ b/data/data14_prep.xlsx
@@ -31,10 +31,10 @@
     <t>Core size (nm)</t>
   </si>
   <si>
-    <t>size_nm</t>
+    <t>diameter</t>
   </si>
   <si>
-    <t>surface_charge_mv</t>
+    <t>surface_charge</t>
   </si>
   <si>
     <t>Surface area (m2/g)</t>
@@ -43,7 +43,7 @@
     <t>cell_type</t>
   </si>
   <si>
-    <t>concentration_ug/ml</t>
+    <t>concentration</t>
   </si>
   <si>
     <t>Number of atoms</t>
@@ -73,7 +73,7 @@
     <t>gamma</t>
   </si>
   <si>
-    <t>density_g/cm3</t>
+    <t>density</t>
   </si>
   <si>
     <t>viability</t>

--- a/data/data14_prep.xlsx
+++ b/data/data14_prep.xlsx
@@ -19,16 +19,16 @@
     <t>material_type</t>
   </si>
   <si>
-    <t>Elements</t>
+    <t>elements</t>
   </si>
   <si>
-    <t>Electronegativity</t>
+    <t>electronegativity</t>
   </si>
   <si>
-    <t>Ionic radius</t>
+    <t>ionic_radius</t>
   </si>
   <si>
-    <t>Core size (nm)</t>
+    <t>core_size</t>
   </si>
   <si>
     <t>diameter</t>
@@ -37,7 +37,7 @@
     <t>surface_charge</t>
   </si>
   <si>
-    <t>Surface area (m2/g)</t>
+    <t>surface_area</t>
   </si>
   <si>
     <t>cell_type</t>
@@ -46,13 +46,13 @@
     <t>concentration</t>
   </si>
   <si>
-    <t>Number of atoms</t>
+    <t>number_of_atoms</t>
   </si>
   <si>
-    <t>Molecular weight (g/mol)</t>
+    <t>molecular_weight</t>
   </si>
   <si>
-    <t>Topological polar surface area (Å²)</t>
+    <t>topological_polar_surface_area</t>
   </si>
   <si>
     <t>a</t>
